--- a/data/trans_orig/P32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14078</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7632</v>
+        <v>7473</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23778</v>
+        <v>23926</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02988976681925346</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01620386933466604</v>
+        <v>0.01586736619563019</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05048385063126453</v>
+        <v>0.05079908999508057</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11034</v>
+        <v>12018</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01859597034905713</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06585976797605318</v>
+        <v>0.07173678631754679</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -786,19 +786,19 @@
         <v>17193</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9932</v>
+        <v>9370</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28268</v>
+        <v>27232</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02692653625033689</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01555405304786176</v>
+        <v>0.01467498252923568</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04427092575319454</v>
+        <v>0.04264749734832479</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>456915</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>447215</v>
+        <v>447067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>463361</v>
+        <v>463520</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9701102331807465</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9495161493687356</v>
+        <v>0.9492009100049194</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.983796130665334</v>
+        <v>0.9841326338043698</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -836,7 +836,7 @@
         <v>164420</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>156501</v>
+        <v>155517</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>167535</v>
@@ -845,7 +845,7 @@
         <v>0.9814040296509429</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9341402320239469</v>
+        <v>0.9282632136824531</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>621335</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>610260</v>
+        <v>611296</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>628596</v>
+        <v>629158</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9730734637496631</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9557290742468055</v>
+        <v>0.9573525026516753</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9844459469521382</v>
+        <v>0.9853250174707643</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>29732</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21193</v>
+        <v>20289</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41432</v>
+        <v>42060</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02806444726180143</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02000475312724638</v>
+        <v>0.01915127011477582</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03910879283491048</v>
+        <v>0.03970181506371061</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -982,19 +982,19 @@
         <v>9093</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4249</v>
+        <v>4726</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17489</v>
+        <v>16653</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01703303695455478</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007958647616934279</v>
+        <v>0.00885216746810938</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03275944955560842</v>
+        <v>0.03119439264950081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -1003,19 +1003,19 @@
         <v>38825</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29400</v>
+        <v>27758</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52286</v>
+        <v>51518</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02436814759352802</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01845278126775262</v>
+        <v>0.01742202157349642</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03281722577100803</v>
+        <v>0.0323347090285792</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1029672</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1017972</v>
+        <v>1017344</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1038211</v>
+        <v>1039115</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9719355527381985</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9608912071650896</v>
+        <v>0.9602981849362895</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9799952468727536</v>
+        <v>0.9808487298852242</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>515</v>
@@ -1053,19 +1053,19 @@
         <v>524761</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>516365</v>
+        <v>517201</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>529605</v>
+        <v>529128</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9829669630454452</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9672405504443924</v>
+        <v>0.9688056073504994</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.992041352383066</v>
+        <v>0.9911478325318906</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1519</v>
@@ -1074,19 +1074,19 @@
         <v>1554433</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1540972</v>
+        <v>1541740</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1563858</v>
+        <v>1565500</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.975631852406472</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9671827742289919</v>
+        <v>0.9676652909714205</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9815472187322473</v>
+        <v>0.9825779784265034</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7680</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2973</v>
+        <v>2626</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16257</v>
+        <v>16095</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02191054946401922</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008482678960276225</v>
+        <v>0.007493353990429412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04638243468018846</v>
+        <v>0.04591799941793698</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5199</v>
+        <v>5106</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005333011714620558</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02691305886741418</v>
+        <v>0.02642973818977774</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1220,19 +1220,19 @@
         <v>8710</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3626</v>
+        <v>4043</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18125</v>
+        <v>17337</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01602004968858383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006670003490178119</v>
+        <v>0.007436485095923581</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03333634570403144</v>
+        <v>0.03188677345873306</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>342827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>334250</v>
+        <v>334412</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>347534</v>
+        <v>347881</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9780894505359807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.953617565319812</v>
+        <v>0.9540820005820631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9915173210397238</v>
+        <v>0.9925066460095706</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>184</v>
@@ -1270,7 +1270,7 @@
         <v>192163</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>187994</v>
+        <v>188087</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>193193</v>
@@ -1279,7 +1279,7 @@
         <v>0.9946669882853795</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9730869411325858</v>
+        <v>0.9735702618102223</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>534990</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>525575</v>
+        <v>526363</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>540074</v>
+        <v>539657</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9839799503114162</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9666636542959687</v>
+        <v>0.968113226541267</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9933299965098219</v>
+        <v>0.9925635149040765</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>51489</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37771</v>
+        <v>38856</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65695</v>
+        <v>67536</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02737474208489276</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02008156014328001</v>
+        <v>0.02065811607596086</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03492730951804354</v>
+        <v>0.03590607015298731</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>13239</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6696</v>
+        <v>7131</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23076</v>
+        <v>23416</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01479901423863817</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007485294750925677</v>
+        <v>0.007970974446670739</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02579550541961917</v>
+        <v>0.02617531041399257</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -1437,19 +1437,19 @@
         <v>64728</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50776</v>
+        <v>48652</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83542</v>
+        <v>82676</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02332139241572334</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01829445641293876</v>
+        <v>0.0175290413648806</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03009977908229163</v>
+        <v>0.02978795583620871</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1829415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1815209</v>
+        <v>1813368</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1843133</v>
+        <v>1842048</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9726252579151072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9650726904819563</v>
+        <v>0.9640939298470127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9799184398567196</v>
+        <v>0.9793418839240392</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>862</v>
@@ -1487,19 +1487,19 @@
         <v>881342</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>871505</v>
+        <v>871165</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>887885</v>
+        <v>887450</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9852009857613618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9742044945803808</v>
+        <v>0.9738246895860075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9925147052490745</v>
+        <v>0.9920290255533293</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2658</v>
@@ -1508,19 +1508,19 @@
         <v>2710758</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2691944</v>
+        <v>2692810</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2724710</v>
+        <v>2726834</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9766786075842767</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9699002209177086</v>
+        <v>0.9702120441637913</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9817055435870615</v>
+        <v>0.9824709586351192</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>31383</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21417</v>
+        <v>20677</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46227</v>
+        <v>43933</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06134024387760156</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04186143517789143</v>
+        <v>0.04041551868540876</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09035415643555098</v>
+        <v>0.0858712471133412</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -1872,19 +1872,19 @@
         <v>3057</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9033</v>
+        <v>8157</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01333948210090592</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004277035351779768</v>
+        <v>0.004270853275291049</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03941869830313547</v>
+        <v>0.03559985841824655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -1893,19 +1893,19 @@
         <v>34439</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23634</v>
+        <v>23644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48565</v>
+        <v>47297</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0464919117354855</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03190535449852782</v>
+        <v>0.03191891320542534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06556115166235256</v>
+        <v>0.06384962075789509</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>480235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>465391</v>
+        <v>467685</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>490201</v>
+        <v>490941</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9386597561223984</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9096458435644491</v>
+        <v>0.9141287528866587</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9581385648221086</v>
+        <v>0.9595844813145912</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>209</v>
@@ -1943,19 +1943,19 @@
         <v>226087</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>220111</v>
+        <v>220987</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>228164</v>
+        <v>228165</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.986660517899094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9605813016968644</v>
+        <v>0.9644001415817535</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9957229646482202</v>
+        <v>0.9957291467247089</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>660</v>
@@ -1964,19 +1964,19 @@
         <v>706323</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>692197</v>
+        <v>693465</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>717128</v>
+        <v>717118</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9535080882645145</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9344388483376475</v>
+        <v>0.9361503792421049</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9680946455014722</v>
+        <v>0.9680810867945755</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>86611</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70846</v>
+        <v>68005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>105500</v>
+        <v>106447</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07234846055710226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05917911633480803</v>
+        <v>0.05680647475855056</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08812643879178939</v>
+        <v>0.08891773604894175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -2089,19 +2089,19 @@
         <v>13874</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7139</v>
+        <v>7730</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23629</v>
+        <v>23686</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02323679851090843</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01195623638429671</v>
+        <v>0.01294701619631977</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.039575461824046</v>
+        <v>0.03967126651128327</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -2110,19 +2110,19 @@
         <v>100485</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80806</v>
+        <v>81998</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122265</v>
+        <v>123250</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05600554397927144</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04503754876869104</v>
+        <v>0.04570177834676429</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06814459238011268</v>
+        <v>0.06869349841607833</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1110532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1091643</v>
+        <v>1090696</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1126297</v>
+        <v>1129138</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9276515394428977</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9118735612082109</v>
+        <v>0.9110822639510583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9408208836651921</v>
+        <v>0.9431935252414499</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>538</v>
@@ -2160,19 +2160,19 @@
         <v>583183</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>573428</v>
+        <v>573371</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>589918</v>
+        <v>589327</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9767632014890916</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9604245381759541</v>
+        <v>0.9603287334887167</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9880437636157033</v>
+        <v>0.9870529838036802</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1585</v>
@@ -2181,19 +2181,19 @@
         <v>1693716</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1671936</v>
+        <v>1670951</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1713395</v>
+        <v>1712203</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9439944560207285</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9318554076198873</v>
+        <v>0.9313065015839218</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.954962451231309</v>
+        <v>0.9542982216532359</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>19648</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12461</v>
+        <v>12155</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31252</v>
+        <v>30734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06023386767030994</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03820147493842519</v>
+        <v>0.03726217441696423</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09580871919347818</v>
+        <v>0.09421832169635579</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2306,19 +2306,19 @@
         <v>5776</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14838</v>
+        <v>14495</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02571445157941325</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007948082545486285</v>
+        <v>0.007929305661426808</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06606051124141141</v>
+        <v>0.06453484444859343</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -2327,19 +2327,19 @@
         <v>25424</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16458</v>
+        <v>16424</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38771</v>
+        <v>40394</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04615749619327955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02987920439476682</v>
+        <v>0.02981901002182503</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07038974884423271</v>
+        <v>0.07333661859645144</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>306548</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>294944</v>
+        <v>295462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313735</v>
+        <v>314041</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9397661323296901</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.904191280806523</v>
+        <v>0.9057816783036449</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9617985250615751</v>
+        <v>0.9627378255830358</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>198</v>
@@ -2377,19 +2377,19 @@
         <v>218831</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>209769</v>
+        <v>210112</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>222822</v>
+        <v>222826</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9742855484205868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9339394887585872</v>
+        <v>0.9354651555514065</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9920519174545137</v>
+        <v>0.9920706943385732</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>486</v>
@@ -2398,19 +2398,19 @@
         <v>525379</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>512032</v>
+        <v>510409</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>534345</v>
+        <v>534379</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9538425038067204</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9296102511557672</v>
+        <v>0.9266633814035484</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.970120795605233</v>
+        <v>0.9701809899781749</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>137642</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116103</v>
+        <v>115961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161620</v>
+        <v>164817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06763891149084181</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05705412259622612</v>
+        <v>0.05698458897793346</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07942182178374359</v>
+        <v>0.08099311038209786</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -2523,19 +2523,19 @@
         <v>22706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14226</v>
+        <v>13992</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35388</v>
+        <v>34649</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02160813611628303</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01353804092816569</v>
+        <v>0.01331594068104769</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03367722755220391</v>
+        <v>0.03297407407012681</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>147</v>
@@ -2544,19 +2544,19 @@
         <v>160348</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136042</v>
+        <v>135483</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189407</v>
+        <v>190685</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05196386643860831</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04408709859821445</v>
+        <v>0.04390584127683184</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06138079229329621</v>
+        <v>0.06179517283939418</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1897315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1873337</v>
+        <v>1870140</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1918854</v>
+        <v>1918996</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9323610885091582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9205781782162563</v>
+        <v>0.9190068896179021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9429458774037738</v>
+        <v>0.9430154110220665</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>945</v>
@@ -2594,19 +2594,19 @@
         <v>1028102</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1015420</v>
+        <v>1016159</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1036582</v>
+        <v>1036816</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.978391863883717</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.966322772447796</v>
+        <v>0.9670259259298731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9864619590718343</v>
+        <v>0.9866840593189524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2731</v>
@@ -2615,19 +2615,19 @@
         <v>2925417</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2896358</v>
+        <v>2895080</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2949723</v>
+        <v>2950282</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9480361335613917</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9386192077067038</v>
+        <v>0.9382048271606057</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9559129014017855</v>
+        <v>0.9560941587231679</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>19066</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11512</v>
+        <v>11924</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29686</v>
+        <v>30737</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05341448654975875</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03225298122427939</v>
+        <v>0.03340478554648826</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08316932557545563</v>
+        <v>0.08611269056962705</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5559</v>
+        <v>4508</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008162362633438508</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04109975841766567</v>
+        <v>0.03332818578295133</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -3000,19 +3000,19 @@
         <v>20170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12514</v>
+        <v>12625</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30240</v>
+        <v>30919</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04097957181356646</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02542570769567919</v>
+        <v>0.02565051051324707</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06143983803399</v>
+        <v>0.06281868969563803</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>337874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>327254</v>
+        <v>326203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>345428</v>
+        <v>345016</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9465855134502412</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9168306744245442</v>
+        <v>0.913887309430373</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9677470187757207</v>
+        <v>0.9665952144535118</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -3050,7 +3050,7 @@
         <v>134146</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>129691</v>
+        <v>130742</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>135250</v>
@@ -3059,7 +3059,7 @@
         <v>0.9918376373665615</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9589002415823343</v>
+        <v>0.9666718142170487</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3071,19 +3071,19 @@
         <v>472020</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>461950</v>
+        <v>461271</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>479676</v>
+        <v>479565</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9590204281864335</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.93856016196601</v>
+        <v>0.9371813103043619</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9745742923043207</v>
+        <v>0.9743494894867528</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>63191</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48534</v>
+        <v>47511</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79176</v>
+        <v>81519</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05042544495174159</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03872932878353635</v>
+        <v>0.03791285787803887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06318090872791504</v>
+        <v>0.06505120906413533</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -3196,19 +3196,19 @@
         <v>26395</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17555</v>
+        <v>17987</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37623</v>
+        <v>38548</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03631698083546991</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02415402480983349</v>
+        <v>0.02474735381884089</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0517642556828596</v>
+        <v>0.05303704219020784</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -3217,19 +3217,19 @@
         <v>89586</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70956</v>
+        <v>71689</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108642</v>
+        <v>110588</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04524649184522905</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03583704635429938</v>
+        <v>0.03620738172883581</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05487052046448964</v>
+        <v>0.05585356645349684</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1189966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1173981</v>
+        <v>1171638</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1204623</v>
+        <v>1205646</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9495745550482584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.936819091272085</v>
+        <v>0.9349487909358647</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9612706712164637</v>
+        <v>0.962087142121961</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>674</v>
@@ -3267,19 +3267,19 @@
         <v>700413</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>689185</v>
+        <v>688260</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>709253</v>
+        <v>708821</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.96368301916453</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9482357443171404</v>
+        <v>0.9469629578097923</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9758459751901666</v>
+        <v>0.9752526461811591</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1797</v>
@@ -3288,19 +3288,19 @@
         <v>1890378</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1871322</v>
+        <v>1869376</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1909008</v>
+        <v>1908275</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.954753508154771</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9451294795355103</v>
+        <v>0.9441464335465022</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9641629536457008</v>
+        <v>0.9637926182711641</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>21982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13329</v>
+        <v>13615</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34382</v>
+        <v>33994</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05793616389736357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03512984327457134</v>
+        <v>0.03588281389769726</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09061687829469658</v>
+        <v>0.08959412592465342</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3413,19 +3413,19 @@
         <v>9801</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5038</v>
+        <v>4712</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18399</v>
+        <v>18822</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03472854944438969</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01785088120334786</v>
+        <v>0.01669708014919705</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06519658538209762</v>
+        <v>0.06669597844574188</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -3434,19 +3434,19 @@
         <v>31783</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20682</v>
+        <v>21050</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45257</v>
+        <v>46115</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04803727252854851</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03125877597612504</v>
+        <v>0.03181537230095433</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06840167792523762</v>
+        <v>0.06969904022594477</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>357438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>345038</v>
+        <v>345426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>366091</v>
+        <v>365805</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9420638361026364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9093831217053034</v>
+        <v>0.9104058740753463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9648701567254286</v>
+        <v>0.9641171861023027</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>257</v>
@@ -3484,19 +3484,19 @@
         <v>272408</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>263810</v>
+        <v>263387</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>277171</v>
+        <v>277497</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9652714505556104</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9348034146179023</v>
+        <v>0.9333040215542583</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9821491187966521</v>
+        <v>0.983302919850803</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>584</v>
@@ -3505,19 +3505,19 @@
         <v>629846</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>616372</v>
+        <v>615514</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640947</v>
+        <v>640579</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9519627274714515</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9315983220747622</v>
+        <v>0.9303009597740555</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9687412240238749</v>
+        <v>0.9681846276990458</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>104239</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83670</v>
+        <v>84588</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125963</v>
+        <v>127461</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0523940777748533</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04205563168038785</v>
+        <v>0.04251697314702049</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06331330318670135</v>
+        <v>0.06406613797799623</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -3630,19 +3630,19 @@
         <v>37300</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26983</v>
+        <v>25665</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53423</v>
+        <v>50281</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03259741513457011</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02358139287675515</v>
+        <v>0.02242947537199581</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04668754913372691</v>
+        <v>0.04394133062634589</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -3651,19 +3651,19 @@
         <v>141539</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>118975</v>
+        <v>119461</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168990</v>
+        <v>166133</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04516554421624392</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03796535011504041</v>
+        <v>0.03812040447948271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.053925069956786</v>
+        <v>0.05301348308941714</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1885278</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1863554</v>
+        <v>1862056</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1905847</v>
+        <v>1904929</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9476059222251467</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9366866968132986</v>
+        <v>0.9359338620220035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9579443683196122</v>
+        <v>0.9574830268529791</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1057</v>
@@ -3701,19 +3701,19 @@
         <v>1106967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1090844</v>
+        <v>1093986</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1117284</v>
+        <v>1118602</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9674025848654298</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.953312450866273</v>
+        <v>0.9560586693736541</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9764186071232447</v>
+        <v>0.9775705246280043</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2846</v>
@@ -3722,19 +3722,19 @@
         <v>2992245</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2964794</v>
+        <v>2967651</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3014809</v>
+        <v>3014323</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.954834455783756</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9460749300432141</v>
+        <v>0.9469865169105828</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9620346498849596</v>
+        <v>0.9618795955205173</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>21033</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13177</v>
+        <v>13941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30712</v>
+        <v>31897</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08136381158991118</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05097213343319054</v>
+        <v>0.0539299286754269</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1188026069324219</v>
+        <v>0.1233890621108671</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3047</v>
+        <v>3519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01185005586813159</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04066458464297482</v>
+        <v>0.04696639347683637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -4107,19 +4107,19 @@
         <v>21921</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14644</v>
+        <v>14270</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32218</v>
+        <v>31620</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06574229001753729</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04391696160693041</v>
+        <v>0.04279680393485726</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09662169792959435</v>
+        <v>0.09482946212230751</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>237478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>227799</v>
+        <v>226614</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245334</v>
+        <v>244570</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9186361884100889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8811973930675783</v>
+        <v>0.8766109378891332</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9490278665668095</v>
+        <v>0.9460700713245731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -4157,16 +4157,16 @@
         <v>74045</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71886</v>
+        <v>71414</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>74933</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9881499441318685</v>
+        <v>0.9881499441318683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9593354153570246</v>
+        <v>0.9530336065231636</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4178,19 +4178,19 @@
         <v>311523</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>301226</v>
+        <v>301824</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>318800</v>
+        <v>319174</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9342577099824628</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9033783020704056</v>
+        <v>0.9051705378776924</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9560830383930695</v>
+        <v>0.9572031960651427</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>63311</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47565</v>
+        <v>47077</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87690</v>
+        <v>86303</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0605419584645373</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04548512207329272</v>
+        <v>0.04501811955040143</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0838550859178078</v>
+        <v>0.08252808898803282</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -4303,19 +4303,19 @@
         <v>18629</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11330</v>
+        <v>10624</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29352</v>
+        <v>29421</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03334793051817658</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.020282619142639</v>
+        <v>0.01901833529102811</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05254297879086781</v>
+        <v>0.05266668040463537</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -4324,19 +4324,19 @@
         <v>81940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63362</v>
+        <v>64113</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102481</v>
+        <v>107611</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05107323673993832</v>
+        <v>0.05107323673993833</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03949389191837649</v>
+        <v>0.03996174622704374</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06387629295228614</v>
+        <v>0.0670740322879976</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>982425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>958046</v>
+        <v>959433</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>998171</v>
+        <v>998659</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9394580415354626</v>
+        <v>0.9394580415354628</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9161449140821911</v>
+        <v>0.9174719110119671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9545148779267072</v>
+        <v>0.9549818804495986</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>698</v>
@@ -4374,19 +4374,19 @@
         <v>539995</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>529272</v>
+        <v>529203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>547294</v>
+        <v>548000</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9666520694818233</v>
+        <v>0.9666520694818235</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9474570212091321</v>
+        <v>0.9473333195953645</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.979717380857361</v>
+        <v>0.9809816647089719</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1563</v>
@@ -4395,19 +4395,19 @@
         <v>1522420</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1501879</v>
+        <v>1496749</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1540998</v>
+        <v>1540247</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9489267632600616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9361237070477136</v>
+        <v>0.9329259677120019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9605061080816232</v>
+        <v>0.9600382537729562</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>24841</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16646</v>
+        <v>16342</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36928</v>
+        <v>36198</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06749799687519592</v>
+        <v>0.06749799687519593</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04522971054192354</v>
+        <v>0.04440311200924837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1003387515273647</v>
+        <v>0.09835687345073355</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -4520,19 +4520,19 @@
         <v>11730</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6486</v>
+        <v>6234</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21201</v>
+        <v>21011</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04347456465904669</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02403898761482877</v>
+        <v>0.02310573211504051</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07857488822692943</v>
+        <v>0.07786895369704304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -4541,19 +4541,19 @@
         <v>36571</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26991</v>
+        <v>25395</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51137</v>
+        <v>50445</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05733573348975997</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04231521202950281</v>
+        <v>0.03981321746481786</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08017075846330432</v>
+        <v>0.0790860111309053</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>343188</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>331101</v>
+        <v>331831</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>351383</v>
+        <v>351687</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.932502003124804</v>
+        <v>0.9325020031248042</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8996612484726361</v>
+        <v>0.9016431265492665</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9547702894580767</v>
+        <v>0.9555968879907515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>347</v>
@@ -4591,19 +4591,19 @@
         <v>258089</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>248618</v>
+        <v>248808</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>263333</v>
+        <v>263585</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9565254353409532</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9214251117730706</v>
+        <v>0.9221310463029568</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9759610123851712</v>
+        <v>0.9768942678849594</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>669</v>
@@ -4612,19 +4612,19 @@
         <v>601277</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>586711</v>
+        <v>587403</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>610857</v>
+        <v>612453</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.94266426651024</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9198292415366954</v>
+        <v>0.9209139888690948</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9576847879704968</v>
+        <v>0.9601867825351825</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>109186</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89943</v>
+        <v>87638</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134669</v>
+        <v>132826</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06529159138692603</v>
+        <v>0.06529159138692602</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05378492812762456</v>
+        <v>0.05240647941253726</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0805306127519989</v>
+        <v>0.07942855737147253</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -4737,19 +4737,19 @@
         <v>31247</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21585</v>
+        <v>21357</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45811</v>
+        <v>45747</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03458932748765058</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02389318947576222</v>
+        <v>0.02364147028830789</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05071077884111169</v>
+        <v>0.05064038071013325</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -4758,19 +4758,19 @@
         <v>140433</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116074</v>
+        <v>117684</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167880</v>
+        <v>167627</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05452317103463358</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04506578980070598</v>
+        <v>0.04569103330148085</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06517961391882984</v>
+        <v>0.0650814863581937</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1563090</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1537607</v>
+        <v>1539450</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1582333</v>
+        <v>1584638</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9347084086130739</v>
+        <v>0.934708408613074</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9194693872480009</v>
+        <v>0.9205714426285273</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9462150718723752</v>
+        <v>0.9475935205874626</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1166</v>
@@ -4808,19 +4808,19 @@
         <v>872130</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>857566</v>
+        <v>857630</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>881792</v>
+        <v>882020</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9654106725123494</v>
+        <v>0.9654106725123492</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9492892211588884</v>
+        <v>0.9493596192898669</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9761068105242378</v>
+        <v>0.9763585297116921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2645</v>
@@ -4829,19 +4829,19 @@
         <v>2435219</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2407772</v>
+        <v>2408025</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2459578</v>
+        <v>2457968</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9454768289653666</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.93482038608117</v>
+        <v>0.9349185136418063</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.954934210199294</v>
+        <v>0.9543089666985194</v>
       </c>
     </row>
     <row r="15">
